--- a/DormManage.Web/FileTemplate/IDL更新模板.xlsx
+++ b/DormManage.Web/FileTemplate/IDL更新模板.xlsx
@@ -449,7 +449,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -486,7 +486,7 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
